--- a/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11B8CBB5-4DED-48DC-98E0-167F30A15089}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208D1A07-8E18-4BED-B9ED-D60EF337B229}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,8 +40,8 @@
             <rFont val="Consolas"/>
             <family val="3"/>
           </rPr>
-          <t>! : diff
-? : failed
+          <t>! : detect diffs
+? : comparison failed
 &lt;, &gt; : not matched</t>
         </r>
       </text>
@@ -96,7 +96,7 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -104,7 +104,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
@@ -183,22 +183,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -265,6 +265,14 @@
 </file>
 
 <file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -538,24 +546,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="2.5625" style="1"/>
-    <col min="2" max="2" width="12.0625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.0625" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5625" style="1"/>
-    <col min="4" max="4" width="6.0625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="2.5625" style="6"/>
-    <col min="6" max="6" width="8.0625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="32.5625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="6.0625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="2.5625" style="6"/>
-    <col min="11" max="11" width="8.0625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="32.5625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.0625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="2.5625" style="4"/>
+    <col min="6" max="6" width="9.0625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.5625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.0625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.0625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.5625" style="4"/>
+    <col min="11" max="11" width="9.0625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="36.5625" style="5" customWidth="1"/>
     <col min="13" max="16384" width="2.5625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12" ht="15" customHeight="1">
+    <row r="1" spans="4:12">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -566,7 +574,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="4:12" ht="15" customHeight="1">
+    <row r="2" spans="4:12">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -577,7 +585,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="4:12" ht="15" customHeight="1">
+    <row r="3" spans="4:12">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -588,7 +596,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="4:12" ht="15" customHeight="1">
+    <row r="4" spans="4:12">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -599,51 +607,51 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="4:12" ht="15" hidden="1" customHeight="1">
-      <c r="D5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="7" t="s">
+    <row r="5" spans="4:12" hidden="1">
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:12" ht="15" customHeight="1">
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="4:12">
+      <c r="D6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -661,6 +669,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{208D1A07-8E18-4BED-B9ED-D60EF337B229}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2962F16D-3388-4B8C-92DB-2E71EA8CB666}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,24 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Yu Gothic"/>
@@ -175,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -200,12 +218,52 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="8" tint="0.59996337778862885"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <u/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -252,6 +310,14 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -273,6 +339,14 @@
 </file>
 
 <file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -553,12 +627,12 @@
     <col min="3" max="3" width="2.5625" style="1"/>
     <col min="4" max="4" width="8.0625" style="3" customWidth="1"/>
     <col min="5" max="5" width="2.5625" style="4"/>
-    <col min="6" max="6" width="9.0625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.0625" style="10" customWidth="1"/>
     <col min="7" max="7" width="36.5625" style="5" customWidth="1"/>
     <col min="8" max="8" width="6.0625" style="6" customWidth="1"/>
     <col min="9" max="9" width="8.0625" style="3" customWidth="1"/>
     <col min="10" max="10" width="2.5625" style="4"/>
-    <col min="11" max="11" width="9.0625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.0625" style="10" customWidth="1"/>
     <col min="12" max="12" width="36.5625" style="5" customWidth="1"/>
     <col min="13" max="16384" width="2.5625" style="1"/>
   </cols>
@@ -566,45 +640,45 @@
     <row r="1" spans="4:12">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="4:12">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="4:12">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="1"/>
       <c r="H3" s="2"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="4:12">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="4:12" hidden="1">
@@ -614,7 +688,7 @@
       <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -629,7 +703,7 @@
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -641,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8" t="s">
         <v>0</v>
@@ -650,21 +724,26 @@
         <v>2</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D1:D1048576 I1:I1048576">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula xml:space="preserve"> AND(D1 &lt;&gt; "", D1 &lt;&gt; D1048576)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1048576 I1:J1048576">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula xml:space="preserve"> (D1 = D1048576)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:L1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula xml:space="preserve"> OR($H1 = "!", $H1 = "&lt;", $H1 = "&gt;")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2962F16D-3388-4B8C-92DB-2E71EA8CB666}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EA9FFBA-3CB7-415D-92F4-7BEFF1ABBE08}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
             <rFont val="Consolas"/>
             <family val="3"/>
           </rPr>
-          <t>! : detect diffs
+          <t>! : diffs detected
 ? : comparison failed
 &lt;, &gt; : not matched</t>
         </r>
@@ -232,7 +232,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -259,32 +259,6 @@
         <u/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -315,6 +289,10 @@
 </file>
 
 <file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -730,20 +708,20 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="D1:D1048576 I1:I1048576">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula xml:space="preserve"> AND(D1 &lt;&gt; "", D1 &lt;&gt; D1048576)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1048576 I1:J1048576">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula xml:space="preserve"> (D1 = D1048576)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:L1048576">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula xml:space="preserve"> OR($H1 = "!", $H1 = "&lt;", $H1 = "&gt;")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EA9FFBA-3CB7-415D-92F4-7BEFF1ABBE08}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84EBCB7D-85EA-4980-A59B-CD40978D17ED}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,15 +57,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【A】</t>
+    <t>*</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【B】</t>
+    <t xml:space="preserve"> 【A】 </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*</t>
+    <t xml:space="preserve"> 【B】 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -296,6 +296,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person13.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -661,36 +665,36 @@
     </row>
     <row r="5" spans="4:12" hidden="1">
       <c r="D5" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="4:12">
       <c r="D6" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="11"/>
@@ -699,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="11"/>

--- a/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/result.xlsx
+++ b/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/result.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48fdcf04b383bd82/workspace_202306-2/hogandiff4/xyz.hotchpotch.hogandiff/src/main/resources/xyz/hotchpotch/hogandiff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84EBCB7D-85EA-4980-A59B-CD40978D17ED}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="11_AD4D066CA252ABDACC1048B18151F84272EEDF48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA7B8BE4-E09D-403A-9557-18BDB4272182}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="result" sheetId="1" r:id="rId1"/>
+    <sheet name="result" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
     <author>姓名</author>
   </authors>
   <commentList>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{71F94771-1BE3-490A-813C-F57DFA40E54A}">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{7417E6E2-48FC-44B6-B3F5-C1E7280C5EF9}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>diff</t>
     <phoneticPr fontId="1"/>
@@ -66,6 +66,17 @@
   </si>
   <si>
     <t xml:space="preserve"> 【B】 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>website</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方眼Diff © 2018-2023 nmby</t>
+    <rPh sb="0" eb="2">
+      <t>ホウガン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -96,13 +107,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -114,6 +118,7 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -121,12 +126,19 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -156,6 +168,30 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -189,50 +225,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -251,12 +360,8 @@
       <font>
         <b val="0"/>
         <i val="0"/>
+        <u val="none"/>
         <color theme="8" tint="0.59996337778862885"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <u/>
       </font>
     </dxf>
   </dxfs>
@@ -300,7 +405,43 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person14.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person15.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person16.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person17.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person18.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person19.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person20.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person21.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person22.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -594,8 +735,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C859564-5D6C-4ACC-B7D0-A916903628A3}">
+  <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -605,132 +746,139 @@
   <sheetFormatPr defaultColWidth="2.5625" defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="2.5625" style="1"/>
-    <col min="2" max="2" width="14.0625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.0625" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5625" style="1"/>
-    <col min="4" max="4" width="8.0625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="2.5625" style="4"/>
-    <col min="6" max="6" width="9.0625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="36.5625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.0625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.0625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="2.5625" style="4"/>
-    <col min="11" max="11" width="9.0625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="36.5625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.0625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="2.5625" style="9"/>
+    <col min="6" max="6" width="8.0625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="39.5625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6.0625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.0625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="2.5625" style="9"/>
+    <col min="11" max="11" width="8.0625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="39.5625" style="11" customWidth="1"/>
     <col min="13" max="16384" width="2.5625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:12">
-      <c r="D1" s="1"/>
+    <row r="1" spans="2:12">
+      <c r="B1" s="21"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="7"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="9"/>
+      <c r="F1" s="7"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="18" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="4:12">
-      <c r="D2" s="1"/>
+    <row r="2" spans="2:12">
+      <c r="B2" s="21"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="7"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="1"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="19" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="4:12">
-      <c r="D3" s="1"/>
+    <row r="3" spans="2:12">
+      <c r="B3" s="21"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="9"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="4:12">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="1"/>
+    <row r="4" spans="2:12">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="4:12" hidden="1">
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="2:12" hidden="1">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:12">
-      <c r="D6" s="7" t="s">
+    <row r="6" spans="2:12">
+      <c r="D6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D1:D1048576 I1:I1048576">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula xml:space="preserve"> AND(D1 &lt;&gt; "", D1 &lt;&gt; D1048576)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D1:E1048576 I1:J1048576">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula xml:space="preserve"> (D1 = D1048576)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:L1048576">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula xml:space="preserve"> OR(AND($E1&lt;&gt;"", $F1=""), AND($J1&lt;&gt;"", $K1=""))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula xml:space="preserve"> OR($H1 = "!", $H1 = "&lt;", $H1 = "&gt;")</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{7131EEA8-9FCC-4204-B0A1-3EAADDA0DEEA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>